--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PERFUMARIA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,111 +473,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">04-07-2023 </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$3000.00 </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$3000.00 </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$5000.00 </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$5000.00 </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  R$2000.00 </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>166.67%</t>
-        </is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">12/05/2003 </t>
+          <t>07/07/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R$3000.00 </t>
+          <t>2000.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R$6000.00 </t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R$5000.00 </t>
+          <t>2001.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> R$10000.00 </t>
+          <t>3001.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  R$4000.00 </t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>166.67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">04-07-2023 </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$3000.00 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$9000.00 </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$3000.00 </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> R$13000.00 </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  R$4000.00 </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>144.44%</t>
+          <t>100.03</t>
         </is>
       </c>
     </row>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,59 +476,34 @@
           <t>07/07/2023</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>07/07/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2000.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3000.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2001.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3001.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>100.03</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
         </is>
       </c>
     </row>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,43 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>07/07/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,265 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31/05/2001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08/07/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8000.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3000.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08/07/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13000.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9000.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>69.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/05/2001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13500.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9500.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>70.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/05/2001</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14000.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10000.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/05/2001</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14500.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10500.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>72.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>03/05/2001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15000.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>500.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11000.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4000.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,259 +473,471 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/05/2001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
+          <t>50/50/3000</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8000.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3000.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>62.50</t>
-        </is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>08/07/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13000.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9000.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>69.23</t>
-        </is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>106.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>13500.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9500.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>70.37</t>
-        </is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14000.00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10000.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>71.43</t>
-        </is>
+          <t>90/80/9000</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>104.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/05/2001</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>14500.00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10500.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>72.41</t>
-        </is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>26000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>103.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>03/05/2001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15000.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11000.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4000.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>73.33</t>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>103.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>90/80/9000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>9999.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>40999.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9999.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>41999.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>102.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>45999.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46999.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>102.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>50999.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51999.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>101.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>55999.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>56999.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>101.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>60999.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61999.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>101.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>65999.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66999.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>101.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>70999.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71999.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>101.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/10/5000</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>75999.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76999.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>101.32</t>
         </is>
       </c>
     </row>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,93 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6000.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11000.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>14/07/2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6000.60</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17000.60</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>16000.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1000.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,93 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6000.6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11000.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>14/07/2023</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6000.60</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17000.60</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5000.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>16000.60</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,43 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>31/08/2000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1025.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1025.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1040.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1040.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>101.46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/listaPERFUMARIA.xlsx
+++ b/storage/listaPERFUMARIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,34 +476,84 @@
           <t>31/08/2000</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1025.00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1025.00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1040.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1040.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1040</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>101.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>31/08/2000</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3025</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3040</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>31/02/2000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2000.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5025.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5040.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>101.46</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>100.30</t>
         </is>
       </c>
     </row>
